--- a/earlywarning-pom/earlywarning-config/src/baf-instances/69_Inst_BusinessLine_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/69_Inst_BusinessLine_SME_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alberto.collu\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Line" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,7 +602,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -651,7 +651,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -705,7 +705,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,7 +759,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -813,7 +813,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,7 +867,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -921,7 +921,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -975,7 +975,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,7 +1029,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1083,7 +1083,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69094978-77FB-49CF-B233-ED2614E913B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69094978-77FB-49CF-B233-ED2614E913B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1137,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CC0947-0D9D-46FE-B090-B41D9FF04A4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34CC0947-0D9D-46FE-B090-B41D9FF04A4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,10 +1191,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C63ABCD-15BF-486F-9627-2345971B8033}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C63ABCD-15BF-486F-9627-2345971B8033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7391400" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1250,7 +1298,7 @@
         <xdr:cNvPr id="10242" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002280000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002280000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1347,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1401,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1455,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1509,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1563,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1617,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1671,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1725,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1779,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C928B1D-AAA7-4702-AFCA-71650ABA1DEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C928B1D-AAA7-4702-AFCA-71650ABA1DEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1833,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758D7767-F815-4EA6-A8D4-864F7210C136}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{758D7767-F815-4EA6-A8D4-864F7210C136}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,10 +1887,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2382A9-59EE-4931-9AB3-D37C6316178B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB2382A9-59EE-4931-9AB3-D37C6316178B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13096875" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1898,7 +1994,7 @@
         <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +2043,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2097,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2151,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2205,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2259,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2313,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2367,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2421,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2475,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EC82BC-B1AA-4786-8983-102DDD60F41D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52EC82BC-B1AA-4786-8983-102DDD60F41D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2529,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CDE2CD-D3E0-4D6D-8438-7D5642C22728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41CDE2CD-D3E0-4D6D-8438-7D5642C22728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,10 +2583,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945CBCD5-7FD2-4B52-9A8D-9636550DED81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{945CBCD5-7FD2-4B52-9A8D-9636550DED81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2546,7 +2690,7 @@
         <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2739,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2793,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2847,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2901,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2955,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +3009,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +3063,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +3117,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3171,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1AB0188-848E-4D72-A35D-3319C1367FDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1AB0188-848E-4D72-A35D-3319C1367FDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3225,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725805D8-5F18-4110-94C5-7D25D5D8A546}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{725805D8-5F18-4110-94C5-7D25D5D8A546}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,10 +3279,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1090DAA2-FA7F-4F17-8E4C-EF07946276C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1090DAA2-FA7F-4F17-8E4C-EF07946276C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3194,7 +3386,7 @@
         <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3435,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3489,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3351,7 +3543,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3597,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,7 +3651,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3705,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3759,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3813,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3867,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12B92C9-BC52-40F9-AC87-41862A4F7A3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B12B92C9-BC52-40F9-AC87-41862A4F7A3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3729,7 +3921,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46273F16-3507-4893-94B6-E1B85D458133}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46273F16-3507-4893-94B6-E1B85D458133}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3783,10 +3975,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BD55BB-E26C-4686-ABBE-D1402E26B798}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44BD55BB-E26C-4686-ABBE-D1402E26B798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9791700" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3842,7 +4082,7 @@
         <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002140000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002140000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3891,7 +4131,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3945,7 +4185,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3999,7 +4239,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4053,7 +4293,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4107,7 +4347,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4161,7 +4401,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4215,7 +4455,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4269,7 +4509,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4323,7 +4563,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DF1E9E-C4E3-419C-AF24-9985FF6A6BA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9DF1E9E-C4E3-419C-AF24-9985FF6A6BA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4377,7 +4617,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7233A5-2272-4083-AFBE-176C72D0F9B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD7233A5-2272-4083-AFBE-176C72D0F9B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,10 +4671,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15FC073-74BE-48EC-B86E-8ECB48F79A85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E15FC073-74BE-48EC-B86E-8ECB48F79A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8867775" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4490,7 +4778,7 @@
         <xdr:cNvPr id="6146" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4539,7 +4827,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4593,7 +4881,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4647,7 +4935,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4701,7 +4989,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4755,7 +5043,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4809,7 +5097,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4863,7 +5151,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4917,7 +5205,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4971,7 +5259,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C997D0C-1463-4CF8-8DE2-43BCD03FC874}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C997D0C-1463-4CF8-8DE2-43BCD03FC874}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5025,7 +5313,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E988B06-2E9F-4501-95BB-7FDB6AC6BF41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E988B06-2E9F-4501-95BB-7FDB6AC6BF41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5079,10 +5367,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D185B3A-88BA-418D-B6C7-2C7B114C883A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D185B3A-88BA-418D-B6C7-2C7B114C883A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11468100" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5138,7 +5474,7 @@
         <xdr:cNvPr id="7170" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000021C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-0000021C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5187,7 +5523,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5241,7 +5577,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5295,7 +5631,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5349,7 +5685,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5403,7 +5739,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5457,7 +5793,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5511,7 +5847,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5565,7 +5901,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5619,7 +5955,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD47457-370F-49C6-9CD0-FF375C88D98C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBD47457-370F-49C6-9CD0-FF375C88D98C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5673,7 +6009,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F5177-0CE7-43FB-BE3F-A16A065B8AD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{175F5177-0CE7-43FB-BE3F-A16A065B8AD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5727,10 +6063,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6248686C-6D7E-4698-85F1-657650A3F362}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6248686C-6D7E-4698-85F1-657650A3F362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5786,7 +6170,7 @@
         <xdr:cNvPr id="8194" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +6219,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5889,7 +6273,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5943,7 +6327,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5997,7 +6381,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6051,7 +6435,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6105,7 +6489,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,7 +6543,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6213,7 +6597,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6267,7 +6651,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B824F312-E4B7-4FFC-A162-B5E71ADAB1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B824F312-E4B7-4FFC-A162-B5E71ADAB1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6321,7 +6705,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D231269-91D3-451D-B1A2-94484814D1BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D231269-91D3-451D-B1A2-94484814D1BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6375,10 +6759,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7137241F-B51C-4450-BF7C-C5CAC1DE2A42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7137241F-B51C-4450-BF7C-C5CAC1DE2A42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6434,7 +6866,7 @@
         <xdr:cNvPr id="9218" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002240000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6483,7 +6915,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6537,7 +6969,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6591,7 +7023,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6645,7 +7077,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6699,7 +7131,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6753,7 +7185,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6807,7 +7239,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6861,7 +7293,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6915,7 +7347,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431F654C-5AFC-4FE6-B7FA-C52FAC469A87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{431F654C-5AFC-4FE6-B7FA-C52FAC469A87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6969,7 +7401,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D870E1-D808-400F-8A72-8CF2FB7BA231}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8D870E1-D808-400F-8A72-8CF2FB7BA231}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7023,10 +7455,58 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D23497-9827-4FFB-BB69-E92E73BD7613}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7D23497-9827-4FFB-BB69-E92E73BD7613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7138,23 +7618,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7190,23 +7653,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7361,7 +7807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -7502,7 +7948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
